--- a/PLR_do/bubble_data/bubble_data11.xlsx
+++ b/PLR_do/bubble_data/bubble_data11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaosilin\Desktop\Population_land_realestate\PLR_do\bubble_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D2B45-820D-43AD-9443-A4220BA74F58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0FCEAF-985B-4E84-B294-520424048C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -466,17 +466,17 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>0.90100000000000002</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="C2" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="D2" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="E2" s="2" t="str">
-        <f t="shared" ref="E2:E11" si="0">IF(AND(B2&gt;0.9,C2&gt;0.4),"1",IF(AND(B2&gt;0.9,C2&lt;0.4),"2",IF(AND(B2&lt;0.9,C2&lt;0.4),"3","4")))</f>
-        <v>2</v>
+        <f>IF(AND(B2&gt;0.8,C2&gt;0.5),"1",IF(AND(B2&gt;0.8,C2&gt;0.3),"2",IF(AND(B2&gt;0.8,C2&lt;0.3),"3","4")))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -484,16 +484,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>0.53200000000000003</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>0.218</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.34100000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E11" si="0">IF(AND(B3&gt;0.8,C3&gt;0.5),"1",IF(AND(B3&gt;0.8,C3&gt;0.3),"2",IF(AND(B3&gt;0.8,C3&lt;0.3),"3","4")))</f>
         <v>3</v>
       </c>
     </row>
@@ -502,13 +502,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.52400000000000002</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="C4" s="2">
-        <v>0.222</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>0.34100000000000003</v>
+        <v>0.187</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -520,13 +520,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>0.48499999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="C5" s="2">
-        <v>0.22800000000000001</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.33200000000000002</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -538,13 +538,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>0.626</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="C6" s="2">
-        <v>0.25700000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.40100000000000002</v>
+        <v>0.252</v>
       </c>
       <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -556,13 +556,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.46600000000000003</v>
+        <v>0.876</v>
       </c>
       <c r="C7" s="2">
-        <v>0.21299999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.315</v>
+        <v>0.191</v>
       </c>
       <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -574,13 +574,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>0.68400000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="C8" s="2">
-        <v>0.26</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>0.42099999999999999</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -592,13 +592,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>0.628</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="C9" s="2">
-        <v>0.26400000000000001</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="D9" s="2">
-        <v>0.40699999999999997</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -610,13 +610,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.58199999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>0.223</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.36</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -628,13 +628,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.67700000000000005</v>
+        <v>0.97</v>
       </c>
       <c r="C11" s="2">
-        <v>0.254</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
